--- a/biology/Zoologie/Édouard_Dubern/Édouard_Dubern.xlsx
+++ b/biology/Zoologie/Édouard_Dubern/Édouard_Dubern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Dubern</t>
+          <t>Édouard_Dubern</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Dubern (Machecoul, 1818 - Calcutta, 1868), armateur, capitaine de navires et chasseur de baleines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Dubern</t>
+          <t>Édouard_Dubern</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'Antoine Dubern (Nantes, 1779 - Le Havre, 1846), manufacturier et armateur, à Nantes puis au Havre, et de Jeanne Geffrier, petit-fils de Pierre Dubern, il est élevé à Nantes et au château de Léquaisière (La Garnache, Vendée), puis au Havre.
 Sous la monarchie de Juillet, Édouard Dubern participe à une tentative française de colonisation de la Nouvelle-Zélande. Cette aventure débute en 1838 avec d'une part l'arrivée du Père Pompallier, fondateur de la première mission catholique de Nouvelle-Zélande et premier évêque du pays, et, d'autre part, l'achat de terres de la péninsule de Banks à des tribus locales par le chasseur de baleine français, Jean-François Langlois. À la suite de ce dernier, ses collègues armateurs et capitaines de navire Pierre Darmendaritz et Édouard DuBern, beaux-frères l'un de l'autre, investissent en Nouvelle-Zélande.
